--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/word_level_predictions_42.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6413,11 +6413,11 @@
         </is>
       </c>
       <c r="I115" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6465,71 +6465,71 @@
         </is>
       </c>
       <c r="I116" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>9</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>False_I-NonEvent</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17558,208 +17558,208 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
+      <c r="F331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
+      <c r="F332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
+      <c r="F333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/word_level_predictions_42.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6413,11 +6413,11 @@
         </is>
       </c>
       <c r="I115" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6465,11 +6465,11 @@
         </is>
       </c>
       <c r="I116" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K116" s="2" t="b">
@@ -6482,54 +6482,54 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>9</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>False_I-NonEvent</t>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,208 +17558,208 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B332" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C332" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" t="n">
+      <c r="D332" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E332" t="inlineStr">
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
+      <c r="F332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
+      <c r="F333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
